--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_1_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_1_sawtooth_0.5_.xlsx
@@ -587,67 +587,67 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6809437969960557</v>
+        <v>0.4147298167457287</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6809437969960557</v>
+        <v>0.4147298167457287</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1277489863192722</v>
+        <v>0.08595542174667903</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1277489863192722</v>
+        <v>0.08595542174667903</v>
       </c>
       <c r="L2" t="n">
-        <v>3.286631266902902</v>
+        <v>4.671393058683937</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-6.284733544166602, 12.857996077972405]</t>
+          <t>[-4.246761999278376, 13.589548116646249]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.492737638581437</v>
+        <v>0.2970561010629869</v>
       </c>
       <c r="O2" t="n">
-        <v>0.492737638581437</v>
+        <v>0.2970561010629869</v>
       </c>
       <c r="P2" t="n">
         <v>-1.886842434588464</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-5.025290350787277, 1.2516054816103477]</t>
+          <t>[-5.019000876005315, 1.2453160068283857]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.2322612288776542</v>
+        <v>0.2313397356165079</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2322612288776542</v>
+        <v>0.2313397356165079</v>
       </c>
       <c r="T2" t="n">
-        <v>14.29882387519289</v>
+        <v>13.57837345588932</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[9.16172333525084, 19.43592441513494]</t>
+          <t>[8.783036052242043, 18.373710859536597]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.195360153527503e-06</v>
+        <v>8.597100522589329e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>1.195360153527503e-06</v>
+        <v>8.597100522589329e-07</v>
       </c>
       <c r="X2" t="n">
         <v>6.606606606606606</v>
       </c>
       <c r="Y2" t="n">
-        <v>-4.382382382382382</v>
+        <v>-4.36036036036036</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.59559559559559</v>
+        <v>17.57357357357357</v>
       </c>
     </row>
     <row r="3">
@@ -677,67 +677,67 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2000562975821601</v>
+        <v>0.09938564110353065</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2000562975821601</v>
+        <v>0.09938564110353065</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5268114736425926</v>
+        <v>0.4535960169166482</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5268114736425926</v>
+        <v>0.4535960169166482</v>
       </c>
       <c r="L3" t="n">
-        <v>6.351307026888449</v>
+        <v>8.399440610020548</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-1.6407079150540866, 14.343321968830985]</t>
+          <t>[-2.0051341232905635, 18.80401534333166]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.1164588315751462</v>
+        <v>0.1109436392248362</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1164588315751462</v>
+        <v>0.1109436392248362</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.610105544182156</v>
+        <v>-0.9937370155499243</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.691948187343315, 1.4717370989790028]</t>
+          <t>[-4.1070270326208895, 2.119553001521041]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.2982952416449958</v>
+        <v>0.5235608107259564</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2982952416449958</v>
+        <v>0.5235608107259564</v>
       </c>
       <c r="T3" t="n">
-        <v>10.38989339448825</v>
+        <v>14.17497225231043</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[5.599904013231533, 15.17988277574496]</t>
+          <t>[8.737297101661602, 19.61264740295926]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>7.267810705413602e-05</v>
+        <v>3.979405631016064e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>7.267810705413602e-05</v>
+        <v>3.979405631016064e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>5.637637637637638</v>
+        <v>3.47947947947948</v>
       </c>
       <c r="Y3" t="n">
-        <v>-5.153153153153156</v>
+        <v>-7.421421421421419</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.42842842842843</v>
+        <v>14.38038038038038</v>
       </c>
     </row>
     <row r="4">
@@ -767,67 +767,67 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8551365547557801</v>
+        <v>0.4421318160651566</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8551365547557801</v>
+        <v>0.4421318160651566</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5265268951023101</v>
+        <v>0.004298186646449986</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5265268951023101</v>
+        <v>0.004298186646449986</v>
       </c>
       <c r="L4" t="n">
-        <v>1.894489521764681</v>
+        <v>4.118239334552951</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-7.0850079077766, 10.873986951305962]</t>
+          <t>[-4.342548376456146, 12.579027045562047]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.672909527483931</v>
+        <v>0.3321533037518232</v>
       </c>
       <c r="O4" t="n">
-        <v>0.672909527483931</v>
+        <v>0.3321533037518232</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.345947603339772</v>
+        <v>-0.9056843686024632</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.484395519538585, 1.7925003128590413]</t>
+          <t>[-4.037842810019314, 2.226474072814388]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.3922984304314012</v>
+        <v>0.5632099781476199</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3922984304314012</v>
+        <v>0.5632099781476199</v>
       </c>
       <c r="T4" t="n">
-        <v>13.55853176373098</v>
+        <v>13.50862104362183</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[8.846851569087846, 18.270211958374123]</t>
+          <t>[8.913926164886963, 18.10331592235669]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>6.267819006033903e-07</v>
+        <v>4.082001112681866e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>6.267819006033903e-07</v>
+        <v>4.082001112681866e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>4.712712712712715</v>
+        <v>3.171171171171171</v>
       </c>
       <c r="Y4" t="n">
-        <v>-6.276276276276278</v>
+        <v>-7.795795795795797</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.70170170170171</v>
+        <v>14.13813813813814</v>
       </c>
     </row>
     <row r="5">
@@ -851,69 +851,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.2700000000002</v>
+        <v>24.5300000000004</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0798575491913045</v>
+        <v>0.3335918590300534</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0798575491913045</v>
+        <v>0.3335918590300534</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>8.136054717387918</v>
+        <v>5.304645102327906</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-0.516658360831272, 16.788767795607107]</t>
+          <t>[-4.3076666861507364, 14.91695689080655]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.06468540559373559</v>
+        <v>0.2722557035488755</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06468540559373559</v>
+        <v>0.2722557035488755</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.03773684869176908</v>
+        <v>0.8993948938205012</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-1.452868674633117, 1.3773949772495788]</t>
+          <t>[-2.239053022378311, 4.037842810019313]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.9574044128824353</v>
+        <v>0.5666891344454279</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9574044128824353</v>
+        <v>0.5666891344454279</v>
       </c>
       <c r="T5" t="n">
-        <v>13.94025665948513</v>
+        <v>15.04303787799793</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[8.859896528729205, 19.02061679024106]</t>
+          <t>[10.008583537769596, 20.07749221822627]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.565716689189145e-06</v>
+        <v>2.93428262354567e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>1.565716689189145e-06</v>
+        <v>2.93428262354567e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1397597597597589</v>
+        <v>21.01869869869904</v>
       </c>
       <c r="Y5" t="n">
-        <v>-5.101231231231275</v>
+        <v>8.765975975976119</v>
       </c>
       <c r="Z5" t="n">
-        <v>5.380750750750793</v>
+        <v>33.27142142142196</v>
       </c>
     </row>
     <row r="6">
@@ -937,69 +937,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.2700000000002</v>
+        <v>24.5300000000004</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3210581201719829</v>
+        <v>0.3507698550024927</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3210581201719829</v>
+        <v>0.3507698550024927</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>6.541287755171453</v>
+        <v>5.045192560972811</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-5.320601700078214, 18.40317721042112]</t>
+          <t>[-3.829083629755158, 13.91946875170078]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.2726033064135009</v>
+        <v>0.2582397758036787</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2726033064135009</v>
+        <v>0.2582397758036787</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.4780000834290776</v>
+        <v>0.2075526678047304</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.566132201372197, 2.610132034514042]</t>
+          <t>[-2.9308952483940813, 3.346000584003542]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.7566663665066682</v>
+        <v>0.894631281628121</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7566663665066682</v>
+        <v>0.894631281628121</v>
       </c>
       <c r="T6" t="n">
-        <v>14.46679966482026</v>
+        <v>17.21521293780089</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[8.31579634145745, 20.61780298818308]</t>
+          <t>[12.366351267204898, 22.064074608396886]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.195917759451049e-05</v>
+        <v>6.092129023471671e-09</v>
       </c>
       <c r="W6" t="n">
-        <v>2.195917759451049e-05</v>
+        <v>6.092129023471671e-09</v>
       </c>
       <c r="X6" t="n">
-        <v>1.770290290290305</v>
+        <v>23.71969969970009</v>
       </c>
       <c r="Y6" t="n">
-        <v>-9.666716716716797</v>
+        <v>11.46697697697717</v>
       </c>
       <c r="Z6" t="n">
-        <v>13.20729729729741</v>
+        <v>35.97242242242301</v>
       </c>
     </row>
     <row r="7">
@@ -1023,69 +1023,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.2700000000002</v>
+        <v>24.5300000000004</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07181600877180117</v>
+        <v>0.1405942577151138</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07181600877180117</v>
+        <v>0.1405942577151138</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>7.923338889644361</v>
+        <v>7.007282174544324</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-0.023208236330861, 15.869886015619583]</t>
+          <t>[-1.539058329144579, 15.553622678233227]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.05064465880414626</v>
+        <v>0.1056203748706768</v>
       </c>
       <c r="O7" t="n">
-        <v>0.05064465880414626</v>
+        <v>0.1056203748706768</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.02515789912784605</v>
+        <v>-0.08805264694746207</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.4025528763774249, 1.3522370781217328]</t>
+          <t>[-1.74218451460335, 1.566079220708426]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.970817329834311</v>
+        <v>0.915095293199877</v>
       </c>
       <c r="S7" t="n">
-        <v>0.970817329834311</v>
+        <v>0.915095293199877</v>
       </c>
       <c r="T7" t="n">
-        <v>12.65503748296897</v>
+        <v>13.02584414876113</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[7.812843292488225, 17.49723167344972]</t>
+          <t>[8.14873765670325, 17.902950640819007]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.803222805354167e-06</v>
+        <v>2.577275345805319e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>3.803222805354167e-06</v>
+        <v>2.577275345805319e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>0.09317317317317375</v>
+        <v>0.3437637637637678</v>
       </c>
       <c r="Y7" t="n">
-        <v>-5.008058058058101</v>
+        <v>-6.114084084084189</v>
       </c>
       <c r="Z7" t="n">
-        <v>5.194404404404448</v>
+        <v>6.801611611611724</v>
       </c>
     </row>
     <row r="8">
@@ -1109,69 +1109,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.2700000000002</v>
+        <v>24.5300000000004</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2801214935268908</v>
+        <v>0.8023841937073546</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2801214935268908</v>
+        <v>0.8023841937073546</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.38026771186842</v>
+        <v>2.450703981883971</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-2.8347851415440797, 11.59532056528092]</t>
+          <t>[-7.733412570639929, 12.634820534407872]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.2277840582120141</v>
+        <v>0.6302589116635768</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2277840582120141</v>
+        <v>0.6302589116635768</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8993948938205012</v>
+        <v>-0.6037895790683088</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.239053022378311, 4.037842810019313]</t>
+          <t>[-3.7422374952671213, 2.534658337130504]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.5666891344454279</v>
+        <v>0.700225533039192</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5666891344454279</v>
+        <v>0.700225533039192</v>
       </c>
       <c r="T8" t="n">
-        <v>10.83725784881857</v>
+        <v>13.2070002039086</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[7.000777609324132, 14.673738088313016]</t>
+          <t>[7.9672868516537205, 18.446713556163477]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>9.006393131283374e-07</v>
+        <v>7.123581438284177e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>9.006393131283374e-07</v>
+        <v>7.123581438284177e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>19.93905905905923</v>
+        <v>2.357237237237275</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.315705705705776</v>
+        <v>-9.895485485485647</v>
       </c>
       <c r="Z8" t="n">
-        <v>31.56241241241268</v>
+        <v>14.6099599599602</v>
       </c>
     </row>
     <row r="9">
@@ -1195,69 +1195,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.2700000000002</v>
+        <v>24.5300000000004</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3158647887670065</v>
+        <v>0.04466544777754999</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3158647887670065</v>
+        <v>0.04466544777754999</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>5.544702787358582</v>
+        <v>6.992277497013144</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-4.12294349079244, 15.212349065509603]</t>
+          <t>[-0.5468723588745252, 14.531427352900813]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.254125125858861</v>
+        <v>0.06828122639644607</v>
       </c>
       <c r="O9" t="n">
-        <v>0.254125125858861</v>
+        <v>0.06828122639644607</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.4780000834290776</v>
+        <v>-0.5534737808126167</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-3.5975795752820057, 2.6415794084238504]</t>
+          <t>[-2.2327635475963508, 1.1258159859711174]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.7590404469507619</v>
+        <v>0.5101896952138509</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7590404469507619</v>
+        <v>0.5101896952138509</v>
       </c>
       <c r="T9" t="n">
-        <v>12.99433837546458</v>
+        <v>11.80703893050015</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[7.812052155453223, 18.176624595475936]</t>
+          <t>[7.960346474960016, 15.653731386040281]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>7.77985499422762e-06</v>
+        <v>1.6748101838715e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>7.77985499422762e-06</v>
+        <v>1.6748101838715e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>1.770290290290305</v>
+        <v>2.160800800800839</v>
       </c>
       <c r="Y9" t="n">
-        <v>-9.783183183183269</v>
+        <v>-4.395265265265336</v>
       </c>
       <c r="Z9" t="n">
-        <v>13.32376376376388</v>
+        <v>8.716866866867015</v>
       </c>
     </row>
     <row r="10">
@@ -1281,69 +1281,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.2700000000002</v>
+        <v>24.5300000000004</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4848425889729296</v>
+        <v>0.3919737301534456</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4848425889729296</v>
+        <v>0.3919737301534456</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>4.123707407520573</v>
+        <v>3.963102399872405</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-5.008951630455961, 13.256366445497108]</t>
+          <t>[-3.9317949736275875, 11.857999773372397]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.3679651927446663</v>
+        <v>0.3174004647719155</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3679651927446663</v>
+        <v>0.3174004647719155</v>
       </c>
       <c r="P10" t="n">
-        <v>0.4591316590831926</v>
+        <v>0.4968685077749626</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.6793162571156195, 3.597579575282005]</t>
+          <t>[-2.616421509296004, 3.610158524845929]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.7696175364139086</v>
+        <v>0.7493632057246686</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7696175364139086</v>
+        <v>0.7493632057246686</v>
       </c>
       <c r="T10" t="n">
-        <v>12.88949908545635</v>
+        <v>12.56088227809591</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[8.009930559079582, 17.76906761183312]</t>
+          <t>[8.514552751929369, 16.60721180426246]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.144759741280367e-06</v>
+        <v>1.316889677305255e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>3.144759741280367e-06</v>
+        <v>1.316889677305255e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>21.56958958958977</v>
+        <v>22.59019019019055</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.946236236236322</v>
+        <v>10.43568568568585</v>
       </c>
       <c r="Z10" t="n">
-        <v>33.19294294294323</v>
+        <v>34.74469469469526</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_1_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_1_sawtooth_0.5_.xlsx
@@ -587,67 +587,67 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4147298167457287</v>
+        <v>0.4803390086851709</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4147298167457287</v>
+        <v>0.4803390086851709</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08595542174667903</v>
+        <v>0.721607777749107</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08595542174667903</v>
+        <v>0.721607777749107</v>
       </c>
       <c r="L2" t="n">
-        <v>4.671393058683937</v>
+        <v>4.533230608954119</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-4.246761999278376, 13.589548116646249]</t>
+          <t>[-4.941417081260543, 14.00787829916878]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.2970561010629869</v>
+        <v>0.3403636631728577</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2970561010629869</v>
+        <v>0.3403636631728577</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.886842434588464</v>
+        <v>-1.78621083807708</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-5.019000876005315, 1.2453160068283857]</t>
+          <t>[-4.924658754275893, 1.3522370781217328]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.2313397356165079</v>
+        <v>0.2577287202295666</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2313397356165079</v>
+        <v>0.2577287202295666</v>
       </c>
       <c r="T2" t="n">
-        <v>13.57837345588932</v>
+        <v>15.22811383726815</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[8.783036052242043, 18.373710859536597]</t>
+          <t>[10.124503922875096, 20.331723751661194]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>8.597100522589329e-07</v>
+        <v>3.020892322957991e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>8.597100522589329e-07</v>
+        <v>3.020892322957991e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>6.606606606606606</v>
+        <v>6.254254254254256</v>
       </c>
       <c r="Y2" t="n">
-        <v>-4.36036036036036</v>
+        <v>-4.734734734734737</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.57357357357357</v>
+        <v>17.24324324324325</v>
       </c>
     </row>
     <row r="3">
@@ -677,67 +677,67 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09938564110353065</v>
+        <v>0.4184647665537868</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09938564110353065</v>
+        <v>0.4184647665537868</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4535960169166482</v>
+        <v>0.1430096438773677</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4535960169166482</v>
+        <v>0.1430096438773677</v>
       </c>
       <c r="L3" t="n">
-        <v>8.399440610020548</v>
+        <v>4.630592172291908</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-2.0051341232905635, 18.80401534333166]</t>
+          <t>[-4.542192753758724, 13.80337709834254]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.1109436392248362</v>
+        <v>0.3147047965648715</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1109436392248362</v>
+        <v>0.3147047965648715</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.9937370155499243</v>
+        <v>-1.861684535460618</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.1070270326208895, 2.119553001521041]</t>
+          <t>[-4.987553502095508, 1.2641844311742716]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.5235608107259564</v>
+        <v>0.2365934263958192</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5235608107259564</v>
+        <v>0.2365934263958192</v>
       </c>
       <c r="T3" t="n">
-        <v>14.17497225231043</v>
+        <v>14.2596650742629</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[8.737297101661602, 19.61264740295926]</t>
+          <t>[9.484373322830121, 19.03495682569568]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.979405631016064e-06</v>
+        <v>2.972567776371449e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>3.979405631016064e-06</v>
+        <v>2.972567776371449e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>3.47947947947948</v>
+        <v>6.518518518518519</v>
       </c>
       <c r="Y3" t="n">
-        <v>-7.421421421421419</v>
+        <v>-4.426426426426428</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.38038038038038</v>
+        <v>17.46346346346347</v>
       </c>
     </row>
     <row r="4">
@@ -767,67 +767,67 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4421318160651566</v>
+        <v>0.3531913166543862</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4421318160651566</v>
+        <v>0.3531913166543862</v>
       </c>
       <c r="J4" t="n">
-        <v>0.004298186646449986</v>
+        <v>0.05060897508116224</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004298186646449986</v>
+        <v>0.05060897508116224</v>
       </c>
       <c r="L4" t="n">
-        <v>4.118239334552951</v>
+        <v>4.574232277335097</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-4.342548376456146, 12.579027045562047]</t>
+          <t>[-4.134863450180567, 13.283328004850759]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.3321533037518232</v>
+        <v>0.2957665072175195</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3321533037518232</v>
+        <v>0.2957665072175195</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.9056843686024632</v>
+        <v>-1.119526511189155</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.037842810019314, 2.226474072814388]</t>
+          <t>[-4.245395477824045, 2.0063424554457336]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.5632099781476199</v>
+        <v>0.4744262484609885</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5632099781476199</v>
+        <v>0.4744262484609885</v>
       </c>
       <c r="T4" t="n">
-        <v>13.50862104362183</v>
+        <v>13.20464408132343</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[8.913926164886963, 18.10331592235669]</t>
+          <t>[8.766703123157802, 17.64258503948905]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.082001112681866e-07</v>
+        <v>3.200600813269006e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>4.082001112681866e-07</v>
+        <v>3.200600813269006e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>3.171171171171171</v>
+        <v>3.91991991991992</v>
       </c>
       <c r="Y4" t="n">
-        <v>-7.795795795795797</v>
+        <v>-7.025025025025025</v>
       </c>
       <c r="Z4" t="n">
-        <v>14.13813813813814</v>
+        <v>14.86486486486486</v>
       </c>
     </row>
     <row r="5">
@@ -851,69 +851,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.5300000000004</v>
+        <v>23.64000000000026</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3335918590300534</v>
+        <v>0.01389411082714076</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3335918590300534</v>
+        <v>0.01389411082714076</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5.304645102327906</v>
+        <v>9.046674197736895</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-4.3076666861507364, 14.91695689080655]</t>
+          <t>[1.2993879794335292, 16.79396041604026]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.2722557035488755</v>
+        <v>0.02311344403713012</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2722557035488755</v>
+        <v>0.02311344403713012</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8993948938205012</v>
+        <v>0.3207632138800385</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-2.239053022378311, 4.037842810019313]</t>
+          <t>[-0.767315923399309, 1.408842351159386]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.5666891344454279</v>
+        <v>0.5556504014531054</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5666891344454279</v>
+        <v>0.5556504014531054</v>
       </c>
       <c r="T5" t="n">
-        <v>15.04303787799793</v>
+        <v>13.89137618321086</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[10.008583537769596, 20.07749221822627]</t>
+          <t>[9.673236802356495, 18.109515564065223]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.93428262354567e-07</v>
+        <v>3.575626639218399e-08</v>
       </c>
       <c r="W5" t="n">
-        <v>2.93428262354567e-07</v>
+        <v>3.575626639218399e-08</v>
       </c>
       <c r="X5" t="n">
-        <v>21.01869869869904</v>
+        <v>22.4331531531534</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.765975975976119</v>
+        <v>18.33933933933954</v>
       </c>
       <c r="Z5" t="n">
-        <v>33.27142142142196</v>
+        <v>26.52696696696725</v>
       </c>
     </row>
     <row r="6">
@@ -937,69 +937,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.5300000000004</v>
+        <v>23.64000000000026</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3507698550024927</v>
+        <v>0.6340713424304856</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3507698550024927</v>
+        <v>0.6340713424304856</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>5.045192560972811</v>
+        <v>3.517777309669435</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-3.829083629755158, 13.91946875170078]</t>
+          <t>[-6.223337221242381, 13.25889184058125]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.2582397758036787</v>
+        <v>0.470781009002823</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2582397758036787</v>
+        <v>0.470781009002823</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2075526678047304</v>
+        <v>0.1823947686768843</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-2.9308952483940813, 3.346000584003542]</t>
+          <t>[-2.9560531475219274, 3.320842684875696]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.894631281628121</v>
+        <v>0.9073396366126902</v>
       </c>
       <c r="S6" t="n">
-        <v>0.894631281628121</v>
+        <v>0.9073396366126902</v>
       </c>
       <c r="T6" t="n">
-        <v>17.21521293780089</v>
+        <v>15.07288222405939</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[12.366351267204898, 22.064074608396886]</t>
+          <t>[9.815214891696566, 20.330549556422216]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>6.092129023471671e-09</v>
+        <v>6.750326171367504e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>6.092129023471671e-09</v>
+        <v>6.750326171367504e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>23.71969969970009</v>
+        <v>22.953753753754</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.46697697697717</v>
+        <v>11.14558558558571</v>
       </c>
       <c r="Z6" t="n">
-        <v>35.97242242242301</v>
+        <v>34.76192192192229</v>
       </c>
     </row>
     <row r="7">
@@ -1023,69 +1023,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.5300000000004</v>
+        <v>23.64000000000026</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1405942577151138</v>
+        <v>0.6290621369632178</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1405942577151138</v>
+        <v>0.6290621369632178</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>7.007282174544324</v>
+        <v>3.553448761406636</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.539058329144579, 15.553622678233227]</t>
+          <t>[-6.034694725594309, 13.14159224840758]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1056203748706768</v>
+        <v>0.4592813033987517</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1056203748706768</v>
+        <v>0.4592813033987517</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.08805264694746207</v>
+        <v>0.2075526678047313</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.74218451460335, 1.566079220708426]</t>
+          <t>[-2.9308952483940813, 3.346000584003544]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.915095293199877</v>
+        <v>0.8946312816281208</v>
       </c>
       <c r="S7" t="n">
-        <v>0.915095293199877</v>
+        <v>0.8946312816281208</v>
       </c>
       <c r="T7" t="n">
-        <v>13.02584414876113</v>
+        <v>12.78100457077671</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[8.14873765670325, 17.902950640819007]</t>
+          <t>[7.516459001780568, 18.045550139772857]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.577275345805319e-06</v>
+        <v>1.326756377406646e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>2.577275345805319e-06</v>
+        <v>1.326756377406646e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>0.3437637637637678</v>
+        <v>22.85909909909935</v>
       </c>
       <c r="Y7" t="n">
-        <v>-6.114084084084189</v>
+        <v>11.05093093093105</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.801611611611724</v>
+        <v>34.66726726726765</v>
       </c>
     </row>
     <row r="8">
@@ -1109,69 +1109,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.5300000000004</v>
+        <v>23.64000000000026</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8023841937073546</v>
+        <v>0.5899860512947084</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8023841937073546</v>
+        <v>0.5899860512947084</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>2.450703981883971</v>
+        <v>3.200302958028894</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-7.733412570639929, 12.634820534407872]</t>
+          <t>[-4.9255621262754925, 11.326168042333281]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.6302589116635768</v>
+        <v>0.4318021908907974</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6302589116635768</v>
+        <v>0.4318021908907974</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.6037895790683088</v>
+        <v>-0.8931054190385392</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-3.7422374952671213, 2.534658337130504]</t>
+          <t>[-4.0315533352373505, 2.245342497160272]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.700225533039192</v>
+        <v>0.5693952357632805</v>
       </c>
       <c r="S8" t="n">
-        <v>0.700225533039192</v>
+        <v>0.5693952357632805</v>
       </c>
       <c r="T8" t="n">
-        <v>13.2070002039086</v>
+        <v>11.88747242638816</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[7.9672868516537205, 18.446713556163477]</t>
+          <t>[7.484966101762134, 16.28997875101418]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>7.123581438284177e-06</v>
+        <v>2.110644856667676e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>7.123581438284177e-06</v>
+        <v>2.110644856667676e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>2.357237237237275</v>
+        <v>3.360240240240277</v>
       </c>
       <c r="Y8" t="n">
-        <v>-9.895485485485647</v>
+        <v>-8.447927927928015</v>
       </c>
       <c r="Z8" t="n">
-        <v>14.6099599599602</v>
+        <v>15.16840840840857</v>
       </c>
     </row>
     <row r="9">
@@ -1195,69 +1195,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.5300000000004</v>
+        <v>23.64000000000026</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04466544777754999</v>
+        <v>0.4797933406429942</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04466544777754999</v>
+        <v>0.4797933406429942</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>6.992277497013144</v>
+        <v>4.530784174220963</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-0.5468723588745252, 14.531427352900813]</t>
+          <t>[-5.1636832750617065, 14.225251623503631]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.06828122639644607</v>
+        <v>0.3515736558322846</v>
       </c>
       <c r="O9" t="n">
-        <v>0.06828122639644607</v>
+        <v>0.3515736558322846</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.5534737808126167</v>
+        <v>0.3962369112635775</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.2327635475963508, 1.1258159859711174]</t>
+          <t>[-2.7422110049352346, 3.5346848274623897]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.5101896952138509</v>
+        <v>0.8004333300484781</v>
       </c>
       <c r="S9" t="n">
-        <v>0.5101896952138509</v>
+        <v>0.8004333300484781</v>
       </c>
       <c r="T9" t="n">
-        <v>11.80703893050015</v>
+        <v>13.20750072008999</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[7.960346474960016, 15.653731386040281]</t>
+          <t>[7.898922652331861, 18.51607878784811]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.6748101838715e-07</v>
+        <v>8.868249446791765e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>1.6748101838715e-07</v>
+        <v>8.868249446791765e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>2.160800800800839</v>
+        <v>22.14918918918943</v>
       </c>
       <c r="Y9" t="n">
-        <v>-4.395265265265336</v>
+        <v>10.34102102102113</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.716866866867015</v>
+        <v>33.95735735735772</v>
       </c>
     </row>
     <row r="10">
@@ -1281,69 +1281,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.5300000000004</v>
+        <v>23.64000000000026</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3919737301534456</v>
+        <v>0.08353894106704063</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3919737301534456</v>
+        <v>0.08353894106704063</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>3.963102399872405</v>
+        <v>7.446714527906521</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-3.9317949736275875, 11.857999773372397]</t>
+          <t>[-0.76799905987711, 15.661428115690153]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.3174004647719155</v>
+        <v>0.07451988972015311</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3174004647719155</v>
+        <v>0.07451988972015311</v>
       </c>
       <c r="P10" t="n">
         <v>0.4968685077749626</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.616421509296004, 3.610158524845929]</t>
+          <t>[-1.559789745926464, 2.5535267614763892]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.7493632057246686</v>
+        <v>0.6289121216393116</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7493632057246686</v>
+        <v>0.6289121216393116</v>
       </c>
       <c r="T10" t="n">
-        <v>12.56088227809591</v>
+        <v>15.21362861100106</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[8.514552751929369, 16.60721180426246]</t>
+          <t>[10.573190840740462, 19.85406638126165]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.316889677305255e-07</v>
+        <v>3.958725613983916e-08</v>
       </c>
       <c r="W10" t="n">
-        <v>1.316889677305255e-07</v>
+        <v>3.958725613983916e-08</v>
       </c>
       <c r="X10" t="n">
-        <v>22.59019019019055</v>
+        <v>21.7705705705708</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.43568568568585</v>
+        <v>14.0325525525527</v>
       </c>
       <c r="Z10" t="n">
-        <v>34.74469469469526</v>
+        <v>29.50858858858891</v>
       </c>
     </row>
   </sheetData>
